--- a/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>CONX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,38 +665,39 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,8 +710,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -738,8 +742,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,8 +774,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,8 +806,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -809,8 +822,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -838,8 +852,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,8 +884,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -896,8 +916,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,8 +948,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,22 +961,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+      <c r="G17" s="3">
+        <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -964,8 +991,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -973,13 +1003,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+      <c r="G18" s="3">
+        <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -993,8 +1023,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,8 +1039,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1015,13 +1049,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1035,16 +1069,19 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>8700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1064,8 +1101,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1093,22 +1133,25 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E23" s="3">
         <v>8700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+      <c r="G23" s="3">
+        <v>0</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1122,8 +1165,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1133,8 +1179,8 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1151,8 +1197,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,22 +1229,25 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E26" s="3">
         <v>8700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+      <c r="G26" s="3">
+        <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1209,22 +1261,25 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E27" s="3">
         <v>8700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+      <c r="G27" s="3">
+        <v>0</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1238,8 +1293,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,8 +1357,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,8 +1421,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1363,13 +1433,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1383,22 +1453,25 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E33" s="3">
         <v>8700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+      <c r="G33" s="3">
+        <v>0</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1485,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,22 +1517,25 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E35" s="3">
         <v>8700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+      <c r="G35" s="3">
+        <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1470,28 +1549,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1504,8 +1586,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,23 +1616,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1559,8 +1646,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1588,8 +1678,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1599,8 +1692,8 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1617,8 +1710,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1646,19 +1742,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1675,23 +1774,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1704,37 +1806,43 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>750000</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>750000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1762,8 +1870,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1791,8 +1902,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,23 +1966,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
         <v>750000</v>
       </c>
-      <c r="E52" s="3">
-        <v>750000</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,8 +1998,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,23 +2030,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>751000</v>
+      </c>
+      <c r="E54" s="3">
         <v>751100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>751200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1936,8 +2062,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,8 +2092,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1971,11 +2102,11 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1991,8 +2122,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2002,12 +2136,12 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,23 +2154,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>40800</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="F59" s="3">
+        <v>45800</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2049,23 +2186,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>40800</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>37100</v>
       </c>
       <c r="F60" s="3">
+        <v>45900</v>
+      </c>
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2078,8 +2218,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2107,19 +2250,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>63500</v>
+        <v>26500</v>
       </c>
       <c r="E62" s="3">
-        <v>72300</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>26500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>26500</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2136,8 +2282,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,23 +2378,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E66" s="3">
         <v>63600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>72400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2252,8 +2410,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2352,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,8 +2552,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2390,13 +2564,13 @@
         <v>5000</v>
       </c>
       <c r="E72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F72" s="3">
         <v>2100</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3">
+        <v>0</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2410,8 +2584,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,22 +2680,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>683700</v>
+      </c>
+      <c r="E76" s="3">
         <v>687500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>678900</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+      <c r="G76" s="3">
+        <v>0</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2526,8 +2712,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,28 +2744,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2589,22 +2781,25 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E81" s="3">
         <v>8700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+      <c r="G81" s="3">
+        <v>0</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2618,8 +2813,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,8 +2829,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2660,8 +2859,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,22 +3019,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2834,8 +3051,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,8 +3067,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2876,8 +3097,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,8 +3161,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2963,8 +3193,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3005,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,23 +3335,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
         <v>751100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3367,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3150,23 +3399,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,6 +3429,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>CONX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -713,8 +714,11 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -745,8 +749,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,8 +784,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,8 +819,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,8 +836,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -855,8 +869,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,8 +904,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,8 +939,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -951,8 +974,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,25 +988,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -994,8 +1021,11 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1003,16 +1033,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1026,8 +1056,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1040,8 +1073,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1049,16 +1083,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F20" s="3">
         <v>8700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1072,8 +1106,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1081,11 +1118,11 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F21" s="3">
         <v>8700</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1104,8 +1141,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1136,25 +1176,28 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1168,8 +1211,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1182,8 +1228,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1200,8 +1246,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,25 +1281,28 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1264,25 +1316,28 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1296,8 +1351,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1386,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,8 +1421,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1424,8 +1491,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1433,16 +1503,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-8700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1456,25 +1526,28 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1488,8 +1561,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1520,25 +1596,28 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1552,31 +1631,34 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1589,8 +1671,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1603,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1617,8 +1703,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1626,17 +1713,17 @@
         <v>900</v>
       </c>
       <c r="E41" s="3">
+        <v>900</v>
+      </c>
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1649,8 +1736,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1681,8 +1771,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1695,8 +1788,8 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1713,8 +1806,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1745,8 +1841,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1754,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1777,8 +1876,11 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1786,17 +1888,17 @@
         <v>900</v>
       </c>
       <c r="E46" s="3">
+        <v>900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,19 +1911,22 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>750000</v>
+        <v>750100</v>
       </c>
       <c r="E47" s="3">
         <v>750000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>750000</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1835,14 +1940,17 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1873,8 +1981,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1905,8 +2016,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1937,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1969,8 +2086,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1980,15 +2100,15 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>750000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2121,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2033,8 +2156,11 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2042,17 +2168,17 @@
         <v>751000</v>
       </c>
       <c r="E54" s="3">
+        <v>751000</v>
+      </c>
+      <c r="F54" s="3">
         <v>751100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>751200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2065,8 +2191,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2093,8 +2223,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2105,11 +2236,11 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2256,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2139,12 +2273,12 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2157,26 +2291,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E59" s="3">
         <v>40800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>37000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>45800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,26 +2326,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E60" s="3">
         <v>40800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>37100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>45900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2221,8 +2361,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2253,8 +2396,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2267,8 +2413,8 @@
       <c r="F62" s="3">
         <v>26500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>26500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2285,8 +2431,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2317,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2381,26 +2536,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E66" s="3">
         <v>67300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>72400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2571,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2427,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2459,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2491,8 +2656,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2523,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2555,25 +2726,28 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5000</v>
+        <v>-60400</v>
       </c>
       <c r="E72" s="3">
         <v>5000</v>
       </c>
       <c r="F72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G72" s="3">
         <v>2100</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2587,8 +2761,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2619,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2651,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2683,25 +2866,28 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>689600</v>
+      </c>
+      <c r="E76" s="3">
         <v>683700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>687500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>678900</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2715,8 +2901,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2747,31 +2936,34 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2784,25 +2976,28 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2816,8 +3011,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2830,8 +3028,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2862,8 +3061,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2894,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2926,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2958,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2990,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3022,25 +3236,28 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3054,8 +3271,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3068,8 +3288,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3100,8 +3321,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3164,8 +3391,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3196,8 +3426,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3210,8 +3443,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3242,8 +3476,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3274,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3306,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3338,8 +3581,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3349,15 +3595,15 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>751100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3370,8 +3616,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3402,26 +3651,29 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3432,6 +3684,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
@@ -2744,7 +2744,7 @@
         <v>5000</v>
       </c>
       <c r="G72" s="3">
-        <v>2100</v>
+        <v>-71100</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>CONX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,50 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,8 +718,14 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -752,8 +759,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -787,8 +800,14 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,8 +841,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,8 +862,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,8 +899,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,8 +940,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,8 +981,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1022,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,13 +1040,15 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1007,13 +1060,13 @@
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1024,8 +1077,14 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1042,13 +1101,13 @@
         <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1059,8 +1118,14 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,8 +1139,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1083,22 +1150,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>8700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1109,26 +1176,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>8700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,8 +1217,14 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1179,31 +1258,37 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F23" s="3">
         <v>5900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>8700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1214,8 +1299,14 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1231,11 +1322,11 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1249,8 +1340,14 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,31 +1381,37 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F26" s="3">
         <v>5900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>8700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1319,31 +1422,37 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F27" s="3">
         <v>5900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>8700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1354,8 +1463,14 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1504,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1545,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1586,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,8 +1627,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1503,22 +1642,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G32" s="3">
         <v>3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-8700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1529,31 +1668,37 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F33" s="3">
         <v>5900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>8700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1564,8 +1709,14 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,31 +1750,37 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F35" s="3">
         <v>5900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>8700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1634,37 +1791,43 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1837,14 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1858,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,32 +1875,34 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1739,8 +1912,14 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1774,8 +1953,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1791,11 +1976,11 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1809,8 +1994,14 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,28 +2035,34 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1879,32 +2076,38 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1914,8 +2117,14 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1923,17 +2132,17 @@
         <v>750100</v>
       </c>
       <c r="E47" s="3">
+        <v>750100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>750100</v>
+      </c>
+      <c r="G47" s="3">
         <v>750000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>750000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,14 +2152,20 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1984,8 +2199,14 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2019,8 +2240,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2281,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,8 +2322,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2103,18 +2342,18 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>750000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2363,14 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,32 +2404,38 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>750800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>750900</v>
+      </c>
+      <c r="F54" s="3">
         <v>751000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>751000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>751100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>751200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2445,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2466,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,8 +2483,10 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2239,14 +2500,14 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2259,8 +2520,14 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2276,15 +2543,15 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2294,32 +2561,38 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F59" s="3">
         <v>34800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>40800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>37000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>45800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,32 +2602,38 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F60" s="3">
         <v>34800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>40800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>37100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>45900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,8 +2643,14 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2399,8 +2684,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2416,11 +2707,11 @@
       <c r="G62" s="3">
         <v>26500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>26500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>26500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2434,8 +2725,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2766,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2807,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,32 +2848,38 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>52700</v>
+      </c>
+      <c r="F66" s="3">
         <v>61300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>67300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>63600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>72400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2889,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2910,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2947,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2988,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +3029,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,31 +3070,37 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-60400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>5000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>5000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-71100</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2764,8 +3111,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +3152,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3193,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,31 +3234,37 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>698200</v>
+      </c>
+      <c r="F76" s="3">
         <v>689600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>683700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>687500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>678900</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2904,8 +3275,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,37 +3316,43 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,31 +3362,37 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F81" s="3">
         <v>5900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>8700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3014,8 +3403,14 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,8 +3424,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3064,8 +3461,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3502,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3543,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3584,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3625,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,31 +3666,37 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3274,8 +3707,14 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,8 +3728,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3324,8 +3765,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3806,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,8 +3847,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3429,8 +3888,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3909,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3946,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3987,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +4028,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,32 +4069,38 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>751100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3619,8 +4110,14 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3654,32 +4151,38 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3687,6 +4190,12 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>CONX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,54 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -724,8 +725,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,8 +769,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,8 +813,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -864,8 +877,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -946,8 +963,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -987,8 +1007,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1028,8 +1051,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1042,34 +1068,35 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1083,8 +1110,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,22 +1125,22 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
@@ -1124,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1141,8 +1174,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1150,25 +1184,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F20" s="3">
         <v>8700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1182,8 +1216,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1196,15 +1233,15 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-3800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1260,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1264,34 +1304,37 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E23" s="3">
         <v>12700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1305,13 +1348,16 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1328,8 +1374,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1346,8 +1392,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1387,34 +1436,37 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>8300</v>
       </c>
       <c r="E26" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F26" s="3">
         <v>8600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1428,34 +1480,37 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>8300</v>
       </c>
       <c r="E27" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F27" s="3">
         <v>8600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1469,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1510,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1551,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1592,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1633,8 +1700,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1642,25 +1712,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-8700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1674,34 +1744,37 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>8300</v>
       </c>
       <c r="E33" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F33" s="3">
         <v>8600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1715,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1756,34 +1832,37 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>8300</v>
       </c>
       <c r="E35" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F35" s="3">
         <v>8600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1797,40 +1876,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1843,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1860,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1877,35 +1963,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
-      </c>
-      <c r="F41" s="3">
-        <v>900</v>
       </c>
       <c r="G41" s="3">
         <v>900</v>
       </c>
       <c r="H41" s="3">
+        <v>900</v>
+      </c>
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1918,8 +2005,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1959,8 +2049,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1982,8 +2075,8 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2000,8 +2093,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2041,8 +2137,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2053,19 +2152,19 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2082,35 +2181,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
-      </c>
-      <c r="F46" s="3">
-        <v>900</v>
       </c>
       <c r="G46" s="3">
         <v>900</v>
       </c>
       <c r="H46" s="3">
+        <v>900</v>
+      </c>
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,13 +2225,16 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>750100</v>
+        <v>750600</v>
       </c>
       <c r="E47" s="3">
         <v>750100</v>
@@ -2138,13 +2243,13 @@
         <v>750100</v>
       </c>
       <c r="G47" s="3">
-        <v>750000</v>
+        <v>750100</v>
       </c>
       <c r="H47" s="3">
         <v>750000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>750000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2158,14 +2263,17 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2205,8 +2313,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2246,8 +2357,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2287,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2328,8 +2445,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2348,15 +2468,15 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>750000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,8 +2489,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2410,35 +2533,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>751200</v>
+      </c>
+      <c r="E54" s="3">
         <v>750800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>750900</v>
-      </c>
-      <c r="F54" s="3">
-        <v>751000</v>
       </c>
       <c r="G54" s="3">
         <v>751000</v>
       </c>
       <c r="H54" s="3">
+        <v>751000</v>
+      </c>
+      <c r="I54" s="3">
         <v>751100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>751200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2451,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2468,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2485,8 +2615,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2506,11 +2637,11 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2526,8 +2657,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2549,12 +2683,12 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2567,35 +2701,38 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13300</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>26200</v>
+        <v>400</v>
       </c>
       <c r="F59" s="3">
-        <v>34800</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>40800</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>37000</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>45800</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2608,35 +2745,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
-        <v>26200</v>
-      </c>
       <c r="F60" s="3">
-        <v>34800</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>40800</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>37100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>45900</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2789,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2690,31 +2833,34 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26500</v>
+        <v>31500</v>
       </c>
       <c r="E62" s="3">
-        <v>26500</v>
+        <v>39500</v>
       </c>
       <c r="F62" s="3">
-        <v>26500</v>
+        <v>52400</v>
       </c>
       <c r="G62" s="3">
-        <v>26500</v>
+        <v>61100</v>
       </c>
       <c r="H62" s="3">
-        <v>26500</v>
+        <v>67100</v>
       </c>
       <c r="I62" s="3">
-        <v>26500</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>63500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>72300</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2731,8 +2877,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2772,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2813,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2854,35 +3009,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E66" s="3">
         <v>39800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>52700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>61300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>67300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>72400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2895,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2912,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2953,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2994,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3035,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3076,34 +3247,37 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-39100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-51800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-60400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>5000</v>
       </c>
       <c r="H72" s="3">
         <v>5000</v>
       </c>
       <c r="I72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J72" s="3">
         <v>-71100</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -3117,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3158,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3199,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3240,34 +3423,37 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-39100</v>
+        <v>719200</v>
       </c>
       <c r="E76" s="3">
+        <v>710900</v>
+      </c>
+      <c r="F76" s="3">
         <v>698200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>689600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>683700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>687500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>678900</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3281,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3322,40 +3511,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3368,34 +3560,37 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>8300</v>
       </c>
       <c r="E81" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F81" s="3">
         <v>8600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3409,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3426,8 +3624,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3467,8 +3666,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3508,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3549,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3590,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3631,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3672,34 +3886,37 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3713,8 +3930,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3730,8 +3950,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3771,8 +3992,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3812,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3853,8 +4080,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3894,8 +4124,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3911,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3952,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3993,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4034,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4075,19 +4318,22 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -4095,15 +4341,15 @@
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>751100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4116,8 +4362,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4157,35 +4406,38 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4196,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>CONX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,8 +729,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -772,8 +776,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,8 +823,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,8 +891,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,8 +983,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,37 +1095,38 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1113,8 +1140,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1122,28 +1152,28 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,8 +1208,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1184,28 +1218,28 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F20" s="3">
         <v>13000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1219,8 +1253,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1236,15 +1273,15 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,8 +1300,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1307,37 +1347,40 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E23" s="3">
         <v>8400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1351,17 +1394,20 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1377,8 +1423,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,37 +1488,40 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>8300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1483,37 +1535,40 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>8300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,8 +1770,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1712,28 +1782,28 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-13000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1747,37 +1817,40 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>8300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,37 +1911,40 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>8300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1879,43 +1958,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,8 +2050,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1973,29 +2060,29 @@
         <v>400</v>
       </c>
       <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>900</v>
       </c>
       <c r="H41" s="3">
         <v>900</v>
       </c>
       <c r="I41" s="3">
+        <v>900</v>
+      </c>
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,8 +2095,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,8 +2142,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2078,8 +2171,8 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
@@ -2096,8 +2189,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,8 +2236,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2155,19 +2254,19 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -2184,38 +2283,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
-      </c>
-      <c r="G46" s="3">
-        <v>900</v>
       </c>
       <c r="H46" s="3">
         <v>900</v>
       </c>
       <c r="I46" s="3">
+        <v>900</v>
+      </c>
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,16 +2330,19 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>753000</v>
+      </c>
+      <c r="E47" s="3">
         <v>750600</v>
-      </c>
-      <c r="E47" s="3">
-        <v>750100</v>
       </c>
       <c r="F47" s="3">
         <v>750100</v>
@@ -2246,13 +2351,13 @@
         <v>750100</v>
       </c>
       <c r="H47" s="3">
-        <v>750000</v>
+        <v>750100</v>
       </c>
       <c r="I47" s="3">
         <v>750000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>750000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2266,14 +2371,17 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2316,8 +2424,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,8 +2565,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2471,15 +2591,15 @@
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>750000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,38 +2659,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>753400</v>
+      </c>
+      <c r="E54" s="3">
         <v>751200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>750800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>750900</v>
-      </c>
-      <c r="G54" s="3">
-        <v>751000</v>
       </c>
       <c r="H54" s="3">
         <v>751000</v>
       </c>
       <c r="I54" s="3">
+        <v>751000</v>
+      </c>
+      <c r="J54" s="3">
         <v>751100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>751200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,8 +2746,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2640,11 +2771,11 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,38 +2791,41 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,38 +2838,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,38 +2885,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,8 +2932,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2836,35 +2979,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E62" s="3">
         <v>31500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>39500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>52400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>61100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>67100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>63500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>72300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,38 +3167,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E66" s="3">
         <v>31900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>39800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>52700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>61300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>67300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>63600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>72400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,37 +3421,40 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-39100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-51800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-60400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>5000</v>
       </c>
       <c r="I72" s="3">
         <v>5000</v>
       </c>
       <c r="J72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-71100</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,37 +3609,40 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>719200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>710900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>698200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>689600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>683700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>687500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>678900</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,43 +3703,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,37 +3755,40 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>8300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,8 +3823,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,8 +4103,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3898,28 +4115,28 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,8 +4171,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,8 +4310,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4127,8 +4357,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,8 +4564,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4332,11 +4578,11 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -4344,15 +4590,15 @@
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>751100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,8 +4611,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,8 +4658,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4418,29 +4670,29 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>CONX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,61 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,8 +732,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,8 +782,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +832,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +882,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +904,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,8 +952,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1002,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1052,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1102,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,40 +1121,41 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-200</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1143,8 +1169,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1152,31 +1181,31 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
@@ -1190,8 +1219,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1241,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1218,31 +1251,31 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F20" s="3">
         <v>8500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>13000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1256,8 +1289,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1276,15 +1312,15 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1339,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,40 +1389,43 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>4700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1397,20 +1439,23 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1426,8 +1471,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1444,8 +1489,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,40 +1539,43 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-900</v>
       </c>
       <c r="E26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F26" s="3">
         <v>8300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1538,40 +1589,43 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-900</v>
       </c>
       <c r="E27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F27" s="3">
         <v>8300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1585,8 +1639,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1689,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1739,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1789,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,8 +1839,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1782,31 +1851,31 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-8500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-13000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1820,40 +1889,43 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-900</v>
       </c>
       <c r="E33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F33" s="3">
         <v>8300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1867,8 +1939,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,40 +1989,43 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-900</v>
       </c>
       <c r="E35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F35" s="3">
         <v>8300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1961,46 +2039,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2094,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2116,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,41 +2136,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="E41" s="3">
         <v>400</v>
       </c>
       <c r="F41" s="3">
+        <v>400</v>
+      </c>
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>900</v>
       </c>
       <c r="I41" s="3">
         <v>900</v>
       </c>
       <c r="J41" s="3">
+        <v>900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2184,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,8 +2234,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2174,8 +2266,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2192,8 +2284,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,13 +2334,16 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2257,19 +2355,19 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2286,41 +2384,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>900</v>
       </c>
       <c r="I46" s="3">
         <v>900</v>
       </c>
       <c r="J46" s="3">
+        <v>900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,19 +2434,22 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>84200</v>
+      </c>
+      <c r="E47" s="3">
         <v>753000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>750600</v>
-      </c>
-      <c r="F47" s="3">
-        <v>750100</v>
       </c>
       <c r="G47" s="3">
         <v>750100</v>
@@ -2354,13 +2458,13 @@
         <v>750100</v>
       </c>
       <c r="I47" s="3">
-        <v>750000</v>
+        <v>750100</v>
       </c>
       <c r="J47" s="3">
         <v>750000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>750000</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2374,14 +2478,17 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2427,8 +2534,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2474,8 +2584,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2634,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,41 +2684,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>750000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2734,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,41 +2784,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E54" s="3">
         <v>753400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>751200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>750800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>750900</v>
-      </c>
-      <c r="H54" s="3">
-        <v>751000</v>
       </c>
       <c r="I54" s="3">
         <v>751000</v>
       </c>
       <c r="J54" s="3">
+        <v>751000</v>
+      </c>
+      <c r="K54" s="3">
         <v>751100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>751200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2834,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2856,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,8 +2876,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2774,11 +2904,11 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,41 +2924,44 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,41 +2974,44 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,41 +3024,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,8 +3074,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2982,38 +3124,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E62" s="3">
         <v>28900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>31500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>39500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>52400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>61100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>67100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>63500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>72300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3174,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3224,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3274,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,41 +3324,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E66" s="3">
         <v>30100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>39800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>52700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>61300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>67300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>63600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>72400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3374,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3396,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3444,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3494,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3544,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,40 +3594,43 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-26700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-39100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-51800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-60400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>5000</v>
       </c>
       <c r="J72" s="3">
         <v>5000</v>
       </c>
       <c r="K72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L72" s="3">
         <v>-71100</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
@@ -3471,8 +3644,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3694,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3744,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,40 +3794,43 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>52500</v>
       </c>
       <c r="E76" s="3">
+        <v>723300</v>
+      </c>
+      <c r="F76" s="3">
         <v>719200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>710900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>698200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>689600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>683700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>687500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>678900</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
@@ -3659,8 +3844,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,46 +3894,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,40 +3949,43 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-900</v>
       </c>
       <c r="E81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F81" s="3">
         <v>8300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3805,8 +3999,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4021,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3871,8 +4069,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4119,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4169,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4219,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4269,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,40 +4319,43 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -4153,8 +4369,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,8 +4391,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4219,8 +4439,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4489,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,8 +4539,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4360,8 +4589,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4611,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4659,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4709,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4759,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,41 +4809,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>751100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,8 +4859,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,41 +4909,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>1000</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4957,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
   <si>
     <t>CONX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,65 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -735,8 +736,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,8 +789,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -835,8 +842,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,8 +895,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,8 +918,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -955,8 +969,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,8 +1022,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1055,8 +1075,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1105,8 +1128,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,8 +1148,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1131,34 +1158,34 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1172,8 +1199,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1181,34 +1211,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
@@ -1222,8 +1252,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,8 +1275,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1251,34 +1285,34 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>13000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1292,8 +1326,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1315,15 +1352,15 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1342,8 +1379,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1392,43 +1432,46 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1442,23 +1485,26 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1474,8 +1520,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1492,8 +1538,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,43 +1591,46 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1592,43 +1644,46 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1642,8 +1697,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1742,8 +1803,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,8 +1909,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1851,34 +1921,34 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-13000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1892,43 +1962,46 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1942,8 +2015,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,43 +2068,46 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -2042,49 +2121,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2179,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,44 +2223,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
-      </c>
-      <c r="E41" s="3">
-        <v>400</v>
       </c>
       <c r="F41" s="3">
         <v>400</v>
       </c>
       <c r="G41" s="3">
+        <v>400</v>
+      </c>
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
-      </c>
-      <c r="I41" s="3">
-        <v>900</v>
       </c>
       <c r="J41" s="3">
         <v>900</v>
       </c>
       <c r="K41" s="3">
+        <v>900</v>
+      </c>
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,8 +2274,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2237,13 +2327,16 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2269,8 +2362,8 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
@@ -2287,8 +2380,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2337,16 +2433,19 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2358,19 +2457,19 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2387,44 +2486,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
-      </c>
-      <c r="I46" s="3">
-        <v>900</v>
       </c>
       <c r="J46" s="3">
         <v>900</v>
       </c>
       <c r="K46" s="3">
+        <v>900</v>
+      </c>
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,22 +2539,25 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E47" s="3">
         <v>84200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>753000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>750600</v>
-      </c>
-      <c r="G47" s="3">
-        <v>750100</v>
       </c>
       <c r="H47" s="3">
         <v>750100</v>
@@ -2461,13 +2566,13 @@
         <v>750100</v>
       </c>
       <c r="J47" s="3">
-        <v>750000</v>
+        <v>750100</v>
       </c>
       <c r="K47" s="3">
         <v>750000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>750000</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2481,14 +2586,17 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2537,8 +2645,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2587,8 +2698,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,8 +2804,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2713,18 +2833,18 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>750000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2857,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,44 +2910,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E54" s="3">
         <v>85700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>753400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>751200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>750800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>750900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>751000</v>
       </c>
       <c r="J54" s="3">
         <v>751000</v>
       </c>
       <c r="K54" s="3">
+        <v>751000</v>
+      </c>
+      <c r="L54" s="3">
         <v>751100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>751200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2837,8 +2963,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,8 +3007,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2907,11 +3038,11 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2927,17 +3058,20 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2953,18 +3087,18 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2977,44 +3111,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,44 +3164,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
       </c>
       <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3077,8 +3217,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3127,41 +3270,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E62" s="3">
         <v>31000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>28900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>31500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>39500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>52400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>61100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>67100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>63500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>72300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,8 +3323,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,44 +3482,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E66" s="3">
         <v>33200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>30100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>39800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>52700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>61300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>67300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>72400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3377,8 +3535,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3547,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,43 +3768,46 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-26700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-39100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-51800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-60400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>5000</v>
       </c>
       <c r="K72" s="3">
         <v>5000</v>
       </c>
       <c r="L72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M72" s="3">
         <v>-71100</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
@@ -3647,8 +3821,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,43 +3980,46 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E76" s="3">
         <v>52500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>723300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>719200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>710900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>698200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>689600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>683700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>687500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>678900</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
@@ -3847,8 +4033,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,49 +4086,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3952,43 +4144,46 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -4002,8 +4197,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,8 +4220,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4072,8 +4271,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,43 +4536,46 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -4372,8 +4589,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,8 +4612,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4442,8 +4663,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,31 +4769,34 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4592,8 +4822,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,8 +4845,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4662,8 +4896,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,44 +5055,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>751100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4862,8 +5108,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4912,44 +5161,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4960,6 +5212,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
   <si>
     <t>CONX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,69 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -739,8 +740,11 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -792,8 +796,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -845,8 +852,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +908,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -919,8 +932,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,8 +1042,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1078,8 +1098,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,8 +1154,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,8 +1175,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,34 +1188,34 @@
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1202,8 +1229,11 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,34 +1244,34 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
+      <c r="O18" s="3">
+        <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
@@ -1255,8 +1285,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1276,8 +1309,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1285,37 +1319,37 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>13000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1329,8 +1363,11 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1355,15 +1392,15 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,8 +1419,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1435,46 +1475,49 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
@@ -1488,8 +1531,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1497,17 +1543,17 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1523,8 +1569,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1541,8 +1587,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1594,46 +1643,49 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
@@ -1647,46 +1699,49 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
@@ -1700,8 +1755,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1753,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1806,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1912,8 +1979,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1921,37 +1991,37 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>900</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-13000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1965,46 +2035,49 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
@@ -2018,8 +2091,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2071,46 +2147,49 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
@@ -2124,52 +2203,55 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2182,8 +2264,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2224,47 +2310,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
-        <v>1400</v>
-      </c>
       <c r="F41" s="3">
-        <v>400</v>
+        <v>85600</v>
       </c>
       <c r="G41" s="3">
         <v>400</v>
       </c>
       <c r="H41" s="3">
+        <v>400</v>
+      </c>
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>900</v>
       </c>
       <c r="K41" s="3">
         <v>900</v>
       </c>
       <c r="L41" s="3">
+        <v>900</v>
+      </c>
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2277,8 +2364,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2330,16 +2420,19 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2365,8 +2458,8 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
@@ -2383,8 +2476,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2436,19 +2532,22 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2460,19 +2559,19 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2489,47 +2588,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
-        <v>1400</v>
-      </c>
       <c r="F46" s="3">
+        <v>85700</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
-      </c>
-      <c r="J46" s="3">
-        <v>900</v>
       </c>
       <c r="K46" s="3">
         <v>900</v>
       </c>
       <c r="L46" s="3">
+        <v>900</v>
+      </c>
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2542,25 +2644,28 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>84700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>84200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>753000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>750600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>750100</v>
       </c>
       <c r="I47" s="3">
         <v>750100</v>
@@ -2569,13 +2674,13 @@
         <v>750100</v>
       </c>
       <c r="K47" s="3">
-        <v>750000</v>
+        <v>750100</v>
       </c>
       <c r="L47" s="3">
         <v>750000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>750000</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2589,14 +2694,17 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2648,8 +2756,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2701,8 +2812,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2807,8 +2924,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2836,18 +2956,18 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>750000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,8 +2980,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2913,47 +3036,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E54" s="3">
         <v>86000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>85700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>753400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>751200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>750800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>750900</v>
-      </c>
-      <c r="J54" s="3">
-        <v>751000</v>
       </c>
       <c r="K54" s="3">
         <v>751000</v>
       </c>
       <c r="L54" s="3">
+        <v>751000</v>
+      </c>
+      <c r="M54" s="3">
         <v>751100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>751200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2966,8 +3092,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3008,13 +3138,14 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3041,11 +3172,11 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3061,20 +3192,23 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3090,18 +3224,18 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3114,47 +3248,50 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
-        <v>1800</v>
-      </c>
       <c r="F59" s="3">
+        <v>32800</v>
+      </c>
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3167,47 +3304,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
-        <v>2100</v>
-      </c>
       <c r="F60" s="3">
+        <v>33200</v>
+      </c>
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
       <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3360,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3273,44 +3416,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3">
         <v>32000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>31000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>28900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>31500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>39500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>52400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>61100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>67100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>63500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>72300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3326,8 +3472,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3485,47 +3640,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E66" s="3">
         <v>34300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>33200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>30100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>52700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>61300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>67300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>63600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>72400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3538,8 +3696,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3718,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3771,46 +3942,49 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-26700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-30800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-39100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-51800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-60400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>5000</v>
       </c>
       <c r="L72" s="3">
         <v>5000</v>
       </c>
       <c r="M72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N72" s="3">
         <v>-71100</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -3824,8 +3998,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3983,46 +4166,49 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E76" s="3">
         <v>51700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>723300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>719200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>710900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>698200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>689600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>683700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>687500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>678900</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -4036,8 +4222,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4089,52 +4278,55 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4147,46 +4339,49 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
@@ -4200,8 +4395,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4221,8 +4419,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4274,8 +4473,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4539,46 +4753,49 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
@@ -4592,8 +4809,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4613,8 +4833,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4666,8 +4887,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4772,17 +4999,20 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4798,8 +5028,8 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4825,8 +5055,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4846,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4899,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5058,17 +5301,20 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5078,27 +5324,27 @@
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>751100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5111,8 +5357,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5164,47 +5413,50 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5215,6 +5467,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CONX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
   <si>
     <t>CONX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,8 +744,11 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -799,8 +803,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,8 +862,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +921,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,8 +946,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,8 +1062,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1101,8 +1121,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1180,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,13 +1202,14 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
@@ -1191,34 +1218,34 @@
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1232,8 +1259,11 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,34 +1277,34 @@
         <v>-300</v>
       </c>
       <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
+      <c r="P18" s="3">
+        <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
@@ -1288,8 +1318,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,8 +1343,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1319,40 +1353,40 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>13000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1366,8 +1400,11 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,15 +1432,15 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,8 +1459,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1478,49 +1518,52 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1534,8 +1577,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,17 +1592,17 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1572,8 +1618,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1590,8 +1636,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,49 +1695,52 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1702,49 +1754,52 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1758,8 +1813,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1931,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,8 +2049,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1991,40 +2061,40 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-13000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -2038,49 +2108,52 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -2094,8 +2167,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,49 +2226,52 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2206,55 +2285,58 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2267,8 +2349,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,50 +2397,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E41" s="3">
         <v>27700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>85600</v>
-      </c>
-      <c r="G41" s="3">
-        <v>400</v>
       </c>
       <c r="H41" s="3">
         <v>400</v>
       </c>
       <c r="I41" s="3">
+        <v>400</v>
+      </c>
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>900</v>
       </c>
       <c r="L41" s="3">
         <v>900</v>
       </c>
       <c r="M41" s="3">
+        <v>900</v>
+      </c>
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,8 +2454,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2423,8 +2513,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2434,8 +2527,8 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2461,8 +2554,8 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
@@ -2479,8 +2572,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2535,8 +2631,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2544,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2562,19 +2661,19 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2591,50 +2690,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E46" s="3">
         <v>27800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>85700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
-      </c>
-      <c r="K46" s="3">
-        <v>900</v>
       </c>
       <c r="L46" s="3">
         <v>900</v>
       </c>
       <c r="M46" s="3">
+        <v>900</v>
+      </c>
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,28 +2749,31 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>84700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>84200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>753000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>750600</v>
-      </c>
-      <c r="I47" s="3">
-        <v>750100</v>
       </c>
       <c r="J47" s="3">
         <v>750100</v>
@@ -2677,13 +2782,13 @@
         <v>750100</v>
       </c>
       <c r="L47" s="3">
-        <v>750000</v>
+        <v>750100</v>
       </c>
       <c r="M47" s="3">
         <v>750000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>750000</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
@@ -2697,14 +2802,17 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2759,8 +2867,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2815,8 +2926,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,8 +3044,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2959,18 +3079,18 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
         <v>750000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3103,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,50 +3162,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E54" s="3">
         <v>27800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>86000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>85700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>753400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>751200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>750800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>750900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>751000</v>
       </c>
       <c r="L54" s="3">
         <v>751000</v>
       </c>
       <c r="M54" s="3">
+        <v>751000</v>
+      </c>
+      <c r="N54" s="3">
         <v>751100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>751200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3221,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,8 +3269,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3148,7 +3279,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -3175,11 +3306,11 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3195,23 +3326,26 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,18 +3361,18 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3251,50 +3385,53 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>33400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3307,50 +3444,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
         <v>35000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3363,8 +3503,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3419,47 +3562,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3">
         <v>32000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>31000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>28900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>31500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>39500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>52400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>61100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>67100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>63500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>72300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3621,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,50 +3798,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E66" s="3">
         <v>35000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>33200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>39800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>52700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>67300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>63600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>72400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3699,8 +3857,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3889,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,49 +4116,52 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-34800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-31800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-26700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-30800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-39100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-51800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-60400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>5000</v>
       </c>
       <c r="M72" s="3">
         <v>5000</v>
       </c>
       <c r="N72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O72" s="3">
         <v>-71100</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -4001,8 +4175,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,49 +4352,52 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-7200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>51700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>52500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>723300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>719200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>710900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>698200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>689600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>683700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>687500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>678900</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -4225,8 +4411,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,55 +4470,58 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4342,49 +4534,52 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4398,8 +4593,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,8 +4618,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4476,8 +4675,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,49 +4970,52 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
@@ -4812,8 +5029,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,8 +5054,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4890,8 +5111,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,20 +5229,23 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>57100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5031,8 +5261,8 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5058,8 +5288,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,8 +5370,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,20 +5547,23 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-56900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5327,27 +5573,27 @@
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>751100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,8 +5606,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5416,50 +5665,53 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5470,6 +5722,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
